--- a/xlsx/a69_f21_aUPPachuca.xlsx
+++ b/xlsx/a69_f21_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\2do VoBo pagina\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7215"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
-    <t>Servicos Personales</t>
+    <t>Servicios Personales</t>
   </si>
   <si>
     <t>Materiales y Suministros</t>
@@ -176,10 +176,10 @@
     <t>Bienes Muebles, Inmuebles e Intangibles</t>
   </si>
   <si>
-    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/02-programa-anual-de-egresos-autorizados/2020-Anteproyecto-Presupuesto-Anual-de-Egresos.pdf</t>
-  </si>
-  <si>
     <t>https://www.transparenciapresupuestaria.gob.mx/</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/02-programa-anual-de-egresos-autorizados/2021-presupuesto-anual-de-egresos-resumen.pdf</t>
   </si>
 </sst>
 </file>
@@ -273,7 +273,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -281,23 +281,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -588,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,12 +593,12 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="101.85546875" customWidth="1"/>
+    <col min="6" max="6" width="79.5703125" customWidth="1"/>
     <col min="7" max="7" width="77.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -613,38 +607,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -717,19 +711,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -768,36 +762,36 @@
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="5">
-        <v>43831</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44196</v>
+        <v>2021</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44561</v>
       </c>
       <c r="D8" s="4">
-        <v>142626202</v>
+        <v>138966539</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="5">
-        <v>43961</v>
-      </c>
-      <c r="J8" s="5">
-        <v>43961</v>
-      </c>
-      <c r="K8" s="3"/>
+      <c r="I8" s="3">
+        <v>44298</v>
+      </c>
+      <c r="J8" s="3">
+        <v>44298</v>
+      </c>
+      <c r="K8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -810,11 +804,11 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
-    <hyperlink ref="G8" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -823,14 +817,14 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D4" sqref="D4:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -871,73 +865,73 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>1000</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="4">
-        <v>111284665</v>
+      <c r="D4">
+        <v>115798434</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>2000</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="4">
-        <v>4181309</v>
+      <c r="D5">
+        <v>1988734</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>3000</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="4">
-        <v>25218880</v>
+      <c r="D6">
+        <v>15115429</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>4000</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="8">
-        <v>801575</v>
+      <c r="D7">
+        <v>5327942</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>5000</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="8">
-        <v>1139773</v>
+      <c r="D8">
+        <v>736000</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f21_aUPPachuca.xlsx
+++ b/xlsx/a69_f21_aUPPachuca.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\UPP 3ER TRIMESTRE 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_393850" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -158,6 +158,12 @@
     <t>Presupuesto por capítulo de gasto</t>
   </si>
   <si>
+    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/02-programa-anual-de-egresos-autorizados/2021-presupuesto-anual-de-egresos-resumen.pdf</t>
+  </si>
+  <si>
+    <t>https://www.transparenciapresupuestaria.gob.mx/</t>
+  </si>
+  <si>
     <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
@@ -174,22 +180,13 @@
   </si>
   <si>
     <t>Bienes Muebles, Inmuebles e Intangibles</t>
-  </si>
-  <si>
-    <t>https://www.transparenciapresupuestaria.gob.mx/</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/02-programa-anual-de-egresos-autorizados/2021-presupuesto-anual-de-egresos-resumen.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -202,20 +199,17 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -225,8 +219,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,12 +240,17 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFE1E1E1"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -267,41 +273,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
-    <cellStyle name="Millares 2" xfId="1"/>
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -582,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +633,7 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="79.5703125" customWidth="1"/>
+    <col min="6" max="6" width="97.42578125" customWidth="1"/>
     <col min="7" max="7" width="77.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -607,38 +647,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -711,19 +751,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -760,38 +800,38 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="3">
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7">
         <v>44197</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>44561</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="8">
         <v>138966539</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="F8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="3">
+      <c r="G8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="7">
         <v>44298</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="7">
         <v>44298</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -804,8 +844,8 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId1"/>
+    <hyperlink ref="G8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -816,15 +856,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -865,72 +905,72 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>1000</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="13">
         <v>115798434</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>2000</v>
       </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="13">
         <v>1988734</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="11">
         <v>3000</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="13">
         <v>15115429</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="11">
         <v>4000</v>
       </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="13">
         <v>5327942</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="11">
         <v>5000</v>
       </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="11">
         <v>736000</v>
       </c>
     </row>

--- a/xlsx/a69_f21_aUPPachuca.xlsx
+++ b/xlsx/a69_f21_aUPPachuca.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\UPP 3ER TRIMESTRE 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\1er Trimestre 2022\Recepción de Información\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_393850" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -158,35 +158,35 @@
     <t>Presupuesto por capítulo de gasto</t>
   </si>
   <si>
-    <t>http://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/02-programa-anual-de-egresos-autorizados/2021-presupuesto-anual-de-egresos-resumen.pdf</t>
+    <t>Subdirección de Planeación y Presupuesto (UPP)</t>
+  </si>
+  <si>
+    <t>Servicios Personales</t>
+  </si>
+  <si>
+    <t>Materiales y Suministros</t>
+  </si>
+  <si>
+    <t>Servicios Generales</t>
+  </si>
+  <si>
+    <t>Transferencias, Asignaciones, Subsidios y Otras Ayudas</t>
+  </si>
+  <si>
+    <t>Bienes Muebles, Inmuebles e Intangibles</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/02-programa-anual-de-egresos-autorizados/2022-presupuesto-anual-de-egresos-resumen.pdf</t>
   </si>
   <si>
     <t>https://www.transparenciapresupuestaria.gob.mx/</t>
-  </si>
-  <si>
-    <t>Subdirección de Planeación y Presupuesto (UPP)</t>
-  </si>
-  <si>
-    <t>Servicios Personales</t>
-  </si>
-  <si>
-    <t>Materiales y Suministros</t>
-  </si>
-  <si>
-    <t>Servicios Generales</t>
-  </si>
-  <si>
-    <t>Transferencias, Asignaciones, Subsidios y Otras Ayudas</t>
-  </si>
-  <si>
-    <t>Bienes Muebles, Inmuebles e Intangibles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -199,16 +199,12 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -219,15 +215,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,17 +229,12 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFE1E1E1"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -273,70 +257,34 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -622,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +581,7 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="97.42578125" customWidth="1"/>
+    <col min="6" max="6" width="152.140625" customWidth="1"/>
     <col min="7" max="7" width="77.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -647,38 +595,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -751,19 +699,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -800,38 +748,39 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7">
-        <v>44197</v>
-      </c>
-      <c r="C8" s="7">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="8">
-        <v>138966539</v>
-      </c>
-      <c r="E8" s="8">
+    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44926</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(Tabla_393850!D4:D8)</f>
+        <v>144787270</v>
+      </c>
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="7">
-        <v>44298</v>
-      </c>
-      <c r="J8" s="7">
-        <v>44298</v>
-      </c>
-      <c r="K8" s="8"/>
+      <c r="I8" s="4">
+        <v>44659</v>
+      </c>
+      <c r="J8" s="4">
+        <v>44659</v>
+      </c>
+      <c r="K8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -856,15 +805,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" customWidth="1"/>
+    <col min="3" max="3" width="61" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -905,73 +854,75 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="3">
         <v>1000</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3">
+        <f>53395891+53395891+10546616</f>
+        <v>117338398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2750484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="13">
-        <v>115798434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="D6" s="3">
+        <v>17332116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="11">
-        <v>2000</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="13">
-        <v>1988734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="D7" s="3">
+        <f>625000+5065942</f>
+        <v>5690942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="11">
-        <v>3000</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="13">
-        <v>15115429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11">
-        <v>4000</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="13">
-        <v>5327942</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="11">
-        <v>5000</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="11">
-        <v>736000</v>
+      <c r="D8" s="9">
+        <v>1675330</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f21_aUPPachuca.xlsx
+++ b/xlsx/a69_f21_aUPPachuca.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\1er Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_393850" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -176,10 +183,10 @@
     <t>Bienes Muebles, Inmuebles e Intangibles</t>
   </si>
   <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/02-programa-anual-de-egresos-autorizados/2022-presupuesto-anual-de-egresos-resumen.pdf</t>
-  </si>
-  <si>
     <t>https://www.transparenciapresupuestaria.gob.mx/</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/02-programa-anual-de-egresos-autorizados/2023/2023-presupuesto-anual-de-egresos.pdf</t>
   </si>
 </sst>
 </file>
@@ -262,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -276,6 +283,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -284,8 +294,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -560,7 +573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,7 +584,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +594,7 @@
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="152.140625" customWidth="1"/>
+    <col min="6" max="6" width="72.28515625" customWidth="1"/>
     <col min="7" max="7" width="77.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -595,38 +608,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -699,19 +712,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -748,37 +761,37 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="4">
-        <v>44926</v>
-      </c>
-      <c r="D8" s="3">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="5">
         <f>SUM(Tabla_393850!D4:D8)</f>
-        <v>144787270</v>
-      </c>
-      <c r="E8" s="3">
+        <v>145029433</v>
+      </c>
+      <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I8" s="4">
-        <v>44659</v>
+        <v>45026</v>
       </c>
       <c r="J8" s="4">
-        <v>44659</v>
+        <v>45026</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -793,8 +806,8 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
-    <hyperlink ref="G8" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -806,14 +819,14 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -864,8 +877,8 @@
         <v>46</v>
       </c>
       <c r="D4" s="3">
-        <f>53395891+53395891+10546616</f>
-        <v>117338398</v>
+        <f>117856569</f>
+        <v>117856569</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,7 +892,8 @@
         <v>47</v>
       </c>
       <c r="D5" s="3">
-        <v>2750484</v>
+        <f>3272182</f>
+        <v>3272182</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -893,22 +907,23 @@
         <v>48</v>
       </c>
       <c r="D6" s="3">
-        <v>17332116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <f>17257240</f>
+        <v>17257240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="3">
         <v>4000</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="3">
-        <f>625000+5065942</f>
-        <v>5690942</v>
+        <f>5471442</f>
+        <v>5471442</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,8 +936,9 @@
       <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="9">
-        <v>1675330</v>
+      <c r="D8" s="3">
+        <f>1172000</f>
+        <v>1172000</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f21_aUPPachuca.xlsx
+++ b/xlsx/a69_f21_aUPPachuca.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla_393850" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -269,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -283,23 +283,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -573,7 +570,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -584,7 +581,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,38 +605,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -712,19 +709,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -761,9 +758,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="4">
         <v>44927</v>
@@ -771,17 +768,17 @@
       <c r="C8" s="4">
         <v>45291</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <f>SUM(Tabla_393850!D4:D8)</f>
         <v>145029433</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -918,7 +915,7 @@
       <c r="B7" s="3">
         <v>4000</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="3">
